--- a/trend_results/Rivers/OrouaTribatUSKimboltonSTP_d7a0924b36.xlsx
+++ b/trend_results/Rivers/OrouaTribatUSKimboltonSTP_d7a0924b36.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.302910845276168</v>
+        <v>0.697089154723832</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.981556534831088</v>
+        <v>0.018443465168912</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0910621312195849</v>
+        <v>0.908937868780415</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.936029477295568</v>
+        <v>0.063970522704432</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2721,6 +2721,1094 @@
         </is>
       </c>
       <c r="W25" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>15</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.207845352866207</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.230769230769231</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.538461538461538</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.0392827792531658</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.0977843725151199</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-2.45517370332286</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>15</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.329213606890398</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.857954545454545</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.0100022820629847</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.0345531007494132</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0220439878243942</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.09471858014190079</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.20940231882117</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.185393258426966</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.157303370786517</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0002306423279124</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.694277415564487</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0056179775280898</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.764044943820225</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-1.46931416797488</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-11.516306171339</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.97797755823477</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.335843238394259</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.999756592279116</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.776470588235294</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.282352941176471</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.7178330841417</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.33974358974359</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.121794871794872</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.999993125895239</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0880503144654088</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.867924528301887</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.021892768528464</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.030975323071821</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.0147132589135985</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-4.97562921101455</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.554918718662809</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0089457806279741</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0109810576150434</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.999999999605793</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0280898876404494</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.887640449438202</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.0316482727803906</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0419132914374871</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.0244035038529719</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-6.52541706812176</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.999999999999967</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.696629213483146</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.041959940160729</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0532802982563787</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.0362520443356779</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-5.27797989443133</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.479920168382997</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.320224719101124</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0003333443850852</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0003395183115534</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.87606409589698</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.858757062146893</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.022642716440941</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0537447899750077</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0055109178363602</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.6527530248862</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/OrouaTribatUSKimboltonSTP_d7a0924b36.xlsx
+++ b/trend_results/Rivers/OrouaTribatUSKimboltonSTP_d7a0924b36.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.697089154723832</v>
+        <v>0.383733986980362</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.57</v>
+        <v>10.795</v>
       </c>
       <c r="K2" t="n">
-        <v>0.029993556443557</v>
+        <v>-0.0225772664835164</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0409100815529877</v>
+        <v>-0.135760804040021</v>
       </c>
       <c r="M2" t="n">
-        <v>0.143610280839051</v>
+        <v>0.0557612091794793</v>
       </c>
       <c r="N2" t="n">
-        <v>0.283761177327881</v>
+        <v>-0.209145590398485</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -660,17 +660,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.053020973180505</v>
+        <v>0.0015293873508037</v>
       </c>
       <c r="G3" t="n">
         <v>0.152542372881356</v>
       </c>
       <c r="H3" t="n">
-        <v>0.305084745762712</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0.01</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0008027472527472</v>
+        <v>0.001641983016983</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.0006457121609703</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001737630827783</v>
+        <v>0.0026058450034776</v>
       </c>
       <c r="N3" t="n">
-        <v>8.027472527472529</v>
+        <v>16.4198301698302</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.87651071136037</v>
+        <v>0.5857034623906771</v>
       </c>
       <c r="G4" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H4" t="n">
-        <v>0.847457627118644</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="K4" t="n">
-        <v>-14.0924335772045</v>
+        <v>-8.877270755560231</v>
       </c>
       <c r="L4" t="n">
-        <v>-80.393268828852</v>
+        <v>-45.555217604065</v>
       </c>
       <c r="M4" t="n">
-        <v>11.8848261390966</v>
+        <v>21.4540175055417</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.98091343988827</v>
+        <v>-2.58812558471144</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,16 +846,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.793333927324458</v>
+        <v>0.0410254045425028</v>
       </c>
       <c r="G5" t="n">
-        <v>0.884615384615385</v>
+        <v>0.886792452830189</v>
       </c>
       <c r="H5" t="n">
-        <v>0.192307692307692</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>0.005</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.730192873760345</v>
+        <v>0.979226528935407</v>
       </c>
       <c r="G6" t="n">
-        <v>0.322033898305085</v>
+        <v>0.338983050847458</v>
       </c>
       <c r="H6" t="n">
-        <v>0.152542372881356</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0002990057526055</v>
+        <v>-0.0005824190980667</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.7216138704895531</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
         <v>0.11864406779661</v>
       </c>
       <c r="H7" t="n">
-        <v>0.898305084745763</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.389</v>
+        <v>0.286</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.008807211101000899</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0509903268734575</v>
+        <v>-0.0306118183978837</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0097982755246283</v>
+        <v>0.0298498841857863</v>
       </c>
       <c r="N7" t="n">
-        <v>-2.26406455038584</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.018443465168912</v>
+        <v>0.260887087681537</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.793103448275862</v>
+        <v>0.771929824561403</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>7.49</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0564092664092665</v>
+        <v>-0.017992610837438</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.113280171461687</v>
+        <v>-0.0635434496922697</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0133728402278551</v>
+        <v>0.0296751814849243</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.7531277224201131</v>
+        <v>-0.240221773530548</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1202,11 +1202,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.640891935233007</v>
+        <v>0.471233793707209</v>
       </c>
       <c r="G9" t="n">
         <v>0.0169491525423729</v>
@@ -1218,19 +1218,19 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.393</v>
+        <v>0.292</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0075720924179323</v>
+        <v>0.0017322834223221</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0502582281509857</v>
+        <v>-0.0289758781714436</v>
       </c>
       <c r="M9" t="n">
-        <v>0.013288844708855</v>
+        <v>0.0337619321766969</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.92674107326524</v>
+        <v>0.593247747370609</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1282,46 +1282,46 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.766032275899339</v>
+        <v>0.442467978937887</v>
       </c>
       <c r="G10" t="n">
-        <v>0.508474576271186</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.169491525423729</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.0074178593583835</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-0.0313277624157491</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.0294847169063124</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.34870170152428</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.766507369326608</v>
+        <v>0.0010493983363344</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.864406779661017</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6</v>
+        <v>0.023</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0174181007671574</v>
+        <v>0.0032611607142857</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0395387543380797</v>
+        <v>0.0016983988745789</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0132939035486806</v>
+        <v>0.0051380146885159</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.90301679452623</v>
+        <v>14.1789596273292</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0283643025959185</v>
+        <v>0.0648172904395064</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.508474576271186</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.022</v>
+        <v>1.17</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0019728009259259</v>
+        <v>0.050735430300037</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0.0055585218487288</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0037270408163265</v>
+        <v>0.162310612054825</v>
       </c>
       <c r="N12" t="n">
-        <v>8.96727693602694</v>
+        <v>4.33636156410573</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.528766206292791</v>
+        <v>0.879829272842292</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.898305084745763</v>
+        <v>0.905982905982906</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.17</v>
+        <v>10.56</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0134242359364128</v>
+        <v>0.0265878070973613</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.148741834816807</v>
+        <v>-0.0124113959995194</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06778521608078231</v>
+        <v>0.0752634046372507</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.14737059285579</v>
+        <v>0.251778476300769</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1646,46 +1646,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>10</v>
       </c>
       <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0013069577160482</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.134453781512605</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.184873949579832</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0.908937868780415</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.897435897435897</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>10.5</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0282897518950896</v>
+        <v>0.0004891741071428</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0100256977199561</v>
+        <v>0.0001576805977654</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0772222955388048</v>
+        <v>0.0007826785714285</v>
       </c>
       <c r="N14" t="n">
-        <v>0.269426208524663</v>
+        <v>5.43526785714286</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0097840867083055</v>
+        <v>0.981696479235863</v>
       </c>
       <c r="G15" t="n">
-        <v>0.151260504201681</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H15" t="n">
-        <v>0.168067226890756</v>
+        <v>0.773109243697479</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.008</v>
+        <v>440</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0003537530266343</v>
+        <v>-25.8748532289628</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-52.0069215348215</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0006660560478629</v>
+        <v>-6.65759612250399</v>
       </c>
       <c r="N15" t="n">
-        <v>4.42191283292978</v>
+        <v>-5.88064846112791</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.998284170447128</v>
+        <v>0.0981463797356622</v>
       </c>
       <c r="G16" t="n">
-        <v>0.008403361344537799</v>
+        <v>0.9</v>
       </c>
       <c r="H16" t="n">
-        <v>0.764705882352941</v>
+        <v>0.172727272727273</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>455</v>
+        <v>0.005</v>
       </c>
       <c r="K16" t="n">
-        <v>-39.7551020408163</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-62.1142979282634</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-15.2561106190074</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-8.73738506391568</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.659095195793818</v>
+        <v>0.999120155763375</v>
       </c>
       <c r="G17" t="n">
-        <v>0.900900900900901</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="H17" t="n">
-        <v>0.171171171171171</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.0001660982264665</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-0.000332347588717</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-5.53660754888586</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.999459075515527</v>
+        <v>0.740526257486</v>
       </c>
       <c r="G18" t="n">
-        <v>0.243697478991597</v>
+        <v>0.126050420168067</v>
       </c>
       <c r="H18" t="n">
-        <v>0.142857142857143</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.004</v>
+        <v>0.319</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0002319047619047</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0003983097055616</v>
+        <v>-0.0078744730297445</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.0004322103432771</v>
       </c>
       <c r="N18" t="n">
-        <v>-5.79761904761905</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.942562378623602</v>
+        <v>0.08988566463720001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.117647058823529</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.873949579831933</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3585</v>
+        <v>7.535</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0065014833409402</v>
+        <v>-0.0120878801431126</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0179199512817281</v>
+        <v>-0.0274624060150376</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.0027330250675762</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.81352394447426</v>
+        <v>-0.160423094135536</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2178,11 +2178,7 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2192,14 +2188,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2207,31 +2203,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.063970522704432</v>
+        <v>0.681826295183347</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.0420168067226891</v>
       </c>
       <c r="H20" t="n">
-        <v>0.641025641025641</v>
+        <v>0.865546218487395</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>7.54</v>
+        <v>0.335</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0143613768972018</v>
+        <v>-0.0008577299412915</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.030574558319731</v>
+        <v>-0.008861182625450201</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0039424703877071</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.19046918961806</v>
+        <v>-0.256038788445247</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2236,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2269,7 +2265,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,31 +2294,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.91784629004728</v>
+        <v>0.991393421224356</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0420168067226891</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.865546218487395</v>
+        <v>0.781512605042017</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.365</v>
+        <v>0.658</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0063146041856233</v>
+        <v>-0.0147675202156334</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0187009009253161</v>
+        <v>-0.0259811638319643</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0002507726622925</v>
+        <v>-0.005794627582241</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.73002854400638</v>
+        <v>-2.24430398413882</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2370,46 +2370,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.977103394211999</v>
+        <v>0.0738131035335106</v>
       </c>
       <c r="G22" t="n">
-        <v>0.34453781512605</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.159663865546218</v>
+        <v>0.403361344537815</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0.022</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0005702576112412</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0667227277579963</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0011939153714468</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.59208005109645</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.999899768718041</v>
+        <v>0.661930988577049</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8067226890756301</v>
+        <v>0.907563025210084</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6929999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0288399132816066</v>
+        <v>-0.0119950738916256</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0398732296725473</v>
+        <v>-0.0702403846153845</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.0166173794358508</v>
+        <v>0.0243024180249213</v>
       </c>
       <c r="N23" t="n">
-        <v>-4.16160364813948</v>
+        <v>-0.959605911330048</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.128074530001933</v>
+        <v>0.022894382975452</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.175438596491228</v>
       </c>
       <c r="H24" t="n">
-        <v>0.38655462184874</v>
+        <v>0.578947368421053</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>0.022</v>
+        <v>1.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0004276932084309</v>
+        <v>-0.11183024606972</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0001620690763575</v>
+        <v>-0.165775978602676</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0010231092436974</v>
+        <v>-0.0490074160465675</v>
       </c>
       <c r="N24" t="n">
-        <v>1.94406003832233</v>
+        <v>-7.45534973798132</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2643,11 +2643,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.839432919507464</v>
+        <v>0.350807642569396</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.907563025210084</v>
+        <v>0.8465909090909089</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.18</v>
+        <v>10.545</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0351201923076923</v>
+        <v>-0.0100022820629847</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0743378928570157</v>
+        <v>-0.0334274488264</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0150515109890109</v>
+        <v>0.0216025932666059</v>
       </c>
       <c r="N25" t="n">
-        <v>-2.97628748370274</v>
+        <v>-0.09485331496429331</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.207845352866207</v>
+        <v>0.212996756232054</v>
       </c>
       <c r="G26" t="n">
-        <v>0.230769230769231</v>
+        <v>0.146067415730337</v>
       </c>
       <c r="H26" t="n">
-        <v>0.538461538461538</v>
+        <v>0.162921348314607</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.6</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0392827792531658</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0977843725151199</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0002220364741641</v>
       </c>
       <c r="N26" t="n">
-        <v>-2.45517370332286</v>
+        <v>0</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.329213606890398</v>
+        <v>0.608618308739855</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H27" t="n">
-        <v>0.857954545454545</v>
+        <v>0.7752808988764049</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>10.56</v>
+        <v>422.5</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0100022820629847</v>
+        <v>-1.16064022261252</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0345531007494132</v>
+        <v>-11.4019460060049</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0220439878243942</v>
+        <v>4.97904216848603</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.09471858014190079</v>
+        <v>-0.274707744997047</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2927,23 +2927,23 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.20940231882117</v>
+        <v>0.99978158332196</v>
       </c>
       <c r="G28" t="n">
-        <v>0.185393258426966</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="H28" t="n">
-        <v>0.157303370786517</v>
+        <v>0.27810650887574</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.005</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0002306423279124</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.694277415564487</v>
+        <v>0.902112035428332</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0056179775280898</v>
+        <v>0.351190476190476</v>
       </c>
       <c r="H29" t="n">
-        <v>0.764044943820225</v>
+        <v>0.113095238095238</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>437.5</v>
+        <v>0.003</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.46931416797488</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-11.516306171339</v>
+        <v>-0.0001027137232845</v>
       </c>
       <c r="M29" t="n">
-        <v>3.97797755823477</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.335843238394259</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.999756592279116</v>
+        <v>0.999999916411858</v>
       </c>
       <c r="G30" t="n">
-        <v>0.776470588235294</v>
+        <v>0.0892857142857143</v>
       </c>
       <c r="H30" t="n">
-        <v>0.282352941176471</v>
+        <v>0.869047619047619</v>
       </c>
       <c r="I30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005</v>
+        <v>0.4085</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-0.0231604885057471</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>-0.0293959529988536</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>-0.0158159804613626</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>-5.66964222906906</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.7178330841417</v>
+        <v>0.736100753514205</v>
       </c>
       <c r="G31" t="n">
-        <v>0.33974358974359</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.121794871794872</v>
+        <v>0.522988505747126</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.003</v>
+        <v>7.51</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.0031244653550042</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-0.0050337422288687</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.0124605543710021</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.0416040659787511</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3266,11 +3266,7 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3280,7 +3276,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3291,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.999993125895239</v>
+        <v>0.9999999983504</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0880503144654088</v>
+        <v>0.0280898876404494</v>
       </c>
       <c r="H32" t="n">
-        <v>0.867924528301887</v>
+        <v>0.893258426966292</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.44</v>
+        <v>0.44855</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.021892768528464</v>
+        <v>-0.0261931443357598</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.030975323071821</v>
+        <v>-0.0325278111713313</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0147132589135985</v>
+        <v>-0.0185995386192755</v>
       </c>
       <c r="N32" t="n">
-        <v>-4.97562921101455</v>
+        <v>-5.83951495613862</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3359,7 +3355,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3371,46 +3367,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.554918718662809</v>
+        <v>0.999999999965548</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.685393258426966</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.51</v>
+        <v>0.77</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-0.0359852216748768</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0089457806279741</v>
+        <v>-0.0410233364143006</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0109810576150434</v>
+        <v>-0.028394657051356</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>-4.67340541232167</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3415,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,7 +3444,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3458,46 +3458,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.999999999605793</v>
+        <v>0.50703032436152</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0280898876404494</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.887640449438202</v>
+        <v>0.331460674157303</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.485</v>
+        <v>0.023</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0316482727803906</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0419132914374871</v>
+        <v>-0.0003707951239457</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0244035038529719</v>
+        <v>0.0003606476060033</v>
       </c>
       <c r="N34" t="n">
-        <v>-6.52541706812176</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999999999999967</v>
+        <v>0.871137090769131</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.696629213483146</v>
+        <v>0.859550561797753</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.795</v>
+        <v>1.375</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.041959940160729</v>
+        <v>-0.0225068583120062</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0532802982563787</v>
+        <v>-0.0534290691019797</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0362520443356779</v>
+        <v>0.0053955165404902</v>
       </c>
       <c r="N35" t="n">
-        <v>-5.27797989443133</v>
+        <v>-1.63686242269136</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3627,188 +3627,6 @@
         </is>
       </c>
       <c r="W35" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Oroua Trib at U/S Kimbolton STP</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>15</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0.479920168382997</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.320224719101124</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>-0.0003333443850852</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.0003395183115534</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>1838189</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5561608</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Mana_12a</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Oroua Trib at U/S Kimbolton STP</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>15</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.87606409589698</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.858757062146893</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-0.022642716440941</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-0.0537447899750077</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.0055109178363602</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-1.6527530248862</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>1838189</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5561608</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Mana_12a</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/OrouaTribatUSKimboltonSTP_d7a0924b36.xlsx
+++ b/trend_results/Rivers/OrouaTribatUSKimboltonSTP_d7a0924b36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -127,52 +127,49 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
     <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
   </si>
   <si>
     <t>Very likely improving</t>
@@ -654,31 +651,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.383733986980362</v>
+        <v>0.010294466820841</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.982758620689655</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.795</v>
+        <v>10.59</v>
       </c>
       <c r="K2">
-        <v>-0.0225772664835164</v>
+        <v>-0.117903502747253</v>
       </c>
       <c r="L2">
-        <v>-0.135760804040021</v>
+        <v>-0.171808531646519</v>
       </c>
       <c r="M2">
-        <v>0.0557612091794793</v>
+        <v>-0.0260822186881012</v>
       </c>
       <c r="N2">
-        <v>-0.209145590398485</v>
+        <v>-1.11334752358124</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -693,19 +690,19 @@
         <v>5561608</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
         <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -722,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>0.0015293873508037</v>
+        <v>0.194523983502385</v>
       </c>
       <c r="G3">
-        <v>0.152542372881356</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="H3">
         <v>0.322033898305085</v>
@@ -737,19 +734,19 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K3">
-        <v>0.001641983016983</v>
+        <v>0.0003623511904761</v>
       </c>
       <c r="L3">
-        <v>0.0006457121609703</v>
+        <v>-0.0002988847012231</v>
       </c>
       <c r="M3">
-        <v>0.0026058450034776</v>
+        <v>0.0013443029377612</v>
       </c>
       <c r="N3">
-        <v>16.4198301698302</v>
+        <v>4.02612433862434</v>
       </c>
       <c r="O3" t="s">
         <v>40</v>
@@ -764,19 +761,19 @@
         <v>5561608</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -796,31 +793,31 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.5857034623906771</v>
+        <v>0.807382072798153</v>
       </c>
       <c r="G4">
         <v>0.0169491525423729</v>
       </c>
       <c r="H4">
-        <v>0.932203389830508</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>343</v>
+        <v>289.6</v>
       </c>
       <c r="K4">
-        <v>-8.877270755560231</v>
+        <v>-26.2398008241758</v>
       </c>
       <c r="L4">
-        <v>-45.555217604065</v>
+        <v>-108.972292879539</v>
       </c>
       <c r="M4">
-        <v>21.4540175055417</v>
+        <v>5.25984383521598</v>
       </c>
       <c r="N4">
-        <v>-2.58812558471144</v>
+        <v>-9.0607047044806</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
@@ -835,19 +832,19 @@
         <v>5561608</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -864,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>0.0410254045425028</v>
+        <v>0.236171290341518</v>
       </c>
       <c r="G5">
-        <v>0.886792452830189</v>
+        <v>0.872727272727273</v>
       </c>
       <c r="H5">
-        <v>0.169811320754717</v>
+        <v>0.145454545454545</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0.005</v>
@@ -897,7 +894,7 @@
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q5">
         <v>1838189</v>
@@ -906,19 +903,19 @@
         <v>5561608</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -935,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6">
-        <v>0.979226528935407</v>
+        <v>0.995696728730934</v>
       </c>
       <c r="G6">
-        <v>0.338983050847458</v>
+        <v>0.457627118644068</v>
       </c>
       <c r="H6">
         <v>0.135593220338983</v>
@@ -950,13 +947,13 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.0005824190980667</v>
+        <v>-0.0005217857142857</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -968,7 +965,7 @@
         <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1838189</v>
@@ -977,19 +974,19 @@
         <v>5561608</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1006,31 +1003,31 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.11864406779661</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="H7">
-        <v>0.88135593220339</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.286</v>
+        <v>0.283</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0306118183978837</v>
+        <v>-0.0316892608332221</v>
       </c>
       <c r="M7">
-        <v>0.0298498841857863</v>
+        <v>0.0248823618283817</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1039,7 +1036,7 @@
         <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <v>1838189</v>
@@ -1048,19 +1045,19 @@
         <v>5561608</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,13 +1077,13 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.260887087681537</v>
+        <v>0.742505743000126</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.771929824561403</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1095,16 +1092,16 @@
         <v>7.49</v>
       </c>
       <c r="K8">
-        <v>-0.017992610837438</v>
+        <v>0.0133791208791209</v>
       </c>
       <c r="L8">
-        <v>-0.0635434496922697</v>
+        <v>-0.0245684100356941</v>
       </c>
       <c r="M8">
-        <v>0.0296751814849243</v>
+        <v>0.0652232142857139</v>
       </c>
       <c r="N8">
-        <v>-0.240221773530548</v>
+        <v>0.178626446984258</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
@@ -1119,16 +1116,16 @@
         <v>5561608</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1145,40 +1142,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>0.471233793707209</v>
+        <v>0.641599741502753</v>
       </c>
       <c r="G9">
         <v>0.0169491525423729</v>
       </c>
       <c r="H9">
-        <v>0.949152542372881</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.292</v>
+        <v>0.288</v>
       </c>
       <c r="K9">
-        <v>0.0017322834223221</v>
+        <v>-0.0011964967477375</v>
       </c>
       <c r="L9">
-        <v>-0.0289758781714436</v>
+        <v>-0.0373609623046528</v>
       </c>
       <c r="M9">
-        <v>0.0337619321766969</v>
+        <v>0.0219250765911203</v>
       </c>
       <c r="N9">
-        <v>0.593247747370609</v>
+        <v>-0.415450259631096</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1838189</v>
@@ -1187,19 +1184,19 @@
         <v>5561608</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" t="s">
         <v>57</v>
-      </c>
-      <c r="W9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1219,13 +1216,13 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.442467978937887</v>
+        <v>0.766507369326608</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.898305084745763</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1234,16 +1231,16 @@
         <v>0.55</v>
       </c>
       <c r="K10">
-        <v>0.0074178593583835</v>
+        <v>-0.0133183066933067</v>
       </c>
       <c r="L10">
-        <v>-0.0313277624157491</v>
+        <v>-0.0401373626373626</v>
       </c>
       <c r="M10">
-        <v>0.0294847169063124</v>
+        <v>0.0129602077646969</v>
       </c>
       <c r="N10">
-        <v>1.34870170152428</v>
+        <v>-2.42151030787394</v>
       </c>
       <c r="O10" t="s">
         <v>40</v>
@@ -1258,19 +1255,19 @@
         <v>5561608</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" t="s">
         <v>57</v>
-      </c>
-      <c r="W10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1287,40 +1284,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>0.0010493983363344</v>
+        <v>0.554673997461881</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.610169491525424</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="K11">
-        <v>0.0032611607142857</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0016983988745789</v>
+        <v>-0.0023474495277275</v>
       </c>
       <c r="M11">
-        <v>0.0051380146885159</v>
+        <v>0.0016854845121432</v>
       </c>
       <c r="N11">
-        <v>14.1789596273292</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q11">
         <v>1838189</v>
@@ -1329,19 +1326,19 @@
         <v>5561608</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" t="s">
         <v>57</v>
-      </c>
-      <c r="W11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1355,43 +1352,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0648172904395064</v>
+        <v>0.613235555655522</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.898305084745763</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="K12">
-        <v>0.050735430300037</v>
+        <v>-0.023679092382496</v>
       </c>
       <c r="L12">
-        <v>-0.0055585218487288</v>
+        <v>-0.12899934976982</v>
       </c>
       <c r="M12">
-        <v>0.162310612054825</v>
+        <v>0.112293712760555</v>
       </c>
       <c r="N12">
-        <v>4.33636156410573</v>
+        <v>-1.97325769854133</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q12">
         <v>1838189</v>
@@ -1400,19 +1397,19 @@
         <v>5561608</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1432,13 +1429,13 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.879829272842292</v>
+        <v>0.416256203527265</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.905982905982906</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1447,22 +1444,22 @@
         <v>10.56</v>
       </c>
       <c r="K13">
-        <v>0.0265878070973613</v>
+        <v>-0.008091081177693899</v>
       </c>
       <c r="L13">
-        <v>-0.0124113959995194</v>
+        <v>-0.0460708580045089</v>
       </c>
       <c r="M13">
-        <v>0.0752634046372507</v>
+        <v>0.0382986773320922</v>
       </c>
       <c r="N13">
-        <v>0.251778476300769</v>
+        <v>-0.0766200869099805</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13">
         <v>1838189</v>
@@ -1471,19 +1468,19 @@
         <v>5561608</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W13" t="s">
         <v>57</v>
-      </c>
-      <c r="W13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1503,37 +1500,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.0013069577160482</v>
+        <v>0.07528670646264091</v>
       </c>
       <c r="G14">
         <v>0.134453781512605</v>
       </c>
       <c r="H14">
-        <v>0.184873949579832</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="K14">
-        <v>0.0004891741071428</v>
+        <v>0.0001640835579514</v>
       </c>
       <c r="L14">
-        <v>0.0001576805977654</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.0007826785714285</v>
+        <v>0.0004798139968403</v>
       </c>
       <c r="N14">
-        <v>5.43526785714286</v>
+        <v>2.05104447439353</v>
       </c>
       <c r="O14" t="s">
         <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q14">
         <v>1838189</v>
@@ -1542,19 +1539,19 @@
         <v>5561608</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1574,37 +1571,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.981696479235863</v>
+        <v>0.994379809876883</v>
       </c>
       <c r="G15">
         <v>0.008403361344537799</v>
       </c>
       <c r="H15">
-        <v>0.773109243697479</v>
+        <v>0.789915966386555</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="K15">
-        <v>-25.8748532289628</v>
+        <v>-28.1288797533402</v>
       </c>
       <c r="L15">
-        <v>-52.0069215348215</v>
+        <v>-58.7561205603107</v>
       </c>
       <c r="M15">
-        <v>-6.65759612250399</v>
+        <v>-11.7844729635313</v>
       </c>
       <c r="N15">
-        <v>-5.88064846112791</v>
+        <v>-7.60239993333519</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q15">
         <v>1838189</v>
@@ -1613,19 +1610,19 @@
         <v>5561608</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1642,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>0.0981463797356622</v>
+        <v>0.265620640063344</v>
       </c>
       <c r="G16">
-        <v>0.9</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="H16">
-        <v>0.172727272727273</v>
+        <v>0.18018018018018</v>
       </c>
       <c r="I16">
         <v>8</v>
@@ -1675,7 +1672,7 @@
         <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q16">
         <v>1838189</v>
@@ -1684,19 +1681,19 @@
         <v>5561608</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1713,13 +1710,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>0.999120155763375</v>
+        <v>0.999304020311009</v>
       </c>
       <c r="G17">
-        <v>0.285714285714286</v>
+        <v>0.361344537815126</v>
       </c>
       <c r="H17">
         <v>0.134453781512605</v>
@@ -1731,22 +1728,22 @@
         <v>0.003</v>
       </c>
       <c r="K17">
-        <v>-0.0001660982264665</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-0.000332347588717</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>-5.53660754888586</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
         <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q17">
         <v>1838189</v>
@@ -1755,19 +1752,19 @@
         <v>5561608</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1784,31 +1781,31 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>0.740526257486</v>
+        <v>0.382605237595376</v>
       </c>
       <c r="G18">
-        <v>0.126050420168067</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H18">
-        <v>0.857142857142857</v>
+        <v>0.831932773109244</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.319</v>
+        <v>0.283</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>-0.0078744730297445</v>
+        <v>-0.0008727978128009</v>
       </c>
       <c r="M18">
-        <v>0.0004322103432771</v>
+        <v>0.0044125759126455</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1817,7 +1814,7 @@
         <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q18">
         <v>1838189</v>
@@ -1826,19 +1823,19 @@
         <v>5561608</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1858,37 +1855,37 @@
         <v>36</v>
       </c>
       <c r="F19">
-        <v>0.08988566463720001</v>
+        <v>0.041227344362995</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.655172413793103</v>
+        <v>0.632478632478632</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.535</v>
+        <v>7.54</v>
       </c>
       <c r="K19">
-        <v>-0.0120878801431126</v>
+        <v>-0.0159064115025367</v>
       </c>
       <c r="L19">
-        <v>-0.0274624060150376</v>
+        <v>-0.0319487005661555</v>
       </c>
       <c r="M19">
-        <v>0.0027330250675762</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>-0.160423094135536</v>
+        <v>-0.210960364755128</v>
       </c>
       <c r="O19" t="s">
         <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Q19">
         <v>1838189</v>
@@ -1897,16 +1894,16 @@
         <v>5561608</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1923,40 +1920,40 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F20">
-        <v>0.681826295183347</v>
+        <v>0.468562579761657</v>
       </c>
       <c r="G20">
         <v>0.0420168067226891</v>
       </c>
       <c r="H20">
-        <v>0.865546218487395</v>
+        <v>0.840336134453782</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20">
-        <v>0.335</v>
+        <v>0.288</v>
       </c>
       <c r="K20">
-        <v>-0.0008577299412915</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>-0.008861182625450201</v>
+        <v>-0.0027097183623281</v>
       </c>
       <c r="M20">
-        <v>0.0039424703877071</v>
+        <v>0.007454351426672</v>
       </c>
       <c r="N20">
-        <v>-0.256038788445247</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
         <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q20">
         <v>1838189</v>
@@ -1965,19 +1962,19 @@
         <v>5561608</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
+        <v>56</v>
+      </c>
+      <c r="W20" t="s">
         <v>57</v>
-      </c>
-      <c r="W20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1997,31 +1994,31 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.991393421224356</v>
+        <v>0.986208411953155</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.781512605042017</v>
+        <v>0.697478991596639</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.658</v>
+        <v>0.62</v>
       </c>
       <c r="K21">
-        <v>-0.0147675202156334</v>
+        <v>-0.0114051522248244</v>
       </c>
       <c r="L21">
-        <v>-0.0259811638319643</v>
+        <v>-0.0200105580315948</v>
       </c>
       <c r="M21">
-        <v>-0.005794627582241</v>
+        <v>-0.0026373023082611</v>
       </c>
       <c r="N21">
-        <v>-2.24430398413882</v>
+        <v>-1.83954068142328</v>
       </c>
       <c r="O21" t="s">
         <v>40</v>
@@ -2036,19 +2033,19 @@
         <v>5561608</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" t="s">
         <v>57</v>
-      </c>
-      <c r="W21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2068,13 +2065,13 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.0738131035335106</v>
+        <v>0.329494529018168</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.403361344537815</v>
+        <v>0.38655462184874</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2083,22 +2080,22 @@
         <v>0.022</v>
       </c>
       <c r="K22">
-        <v>0.0005702576112412</v>
+        <v>0.0001495088006549</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-0.0004810967980608</v>
       </c>
       <c r="M22">
-        <v>0.0011939153714468</v>
+        <v>0.0008339401049071</v>
       </c>
       <c r="N22">
-        <v>2.59208005109645</v>
+        <v>0.6795854575224211</v>
       </c>
       <c r="O22" t="s">
         <v>40</v>
       </c>
       <c r="P22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q22">
         <v>1838189</v>
@@ -2107,19 +2104,19 @@
         <v>5561608</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" t="s">
         <v>57</v>
-      </c>
-      <c r="W22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2139,37 +2136,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.661930988577049</v>
+        <v>0.582724924545042</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.907563025210084</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="K23">
-        <v>-0.0119950738916256</v>
+        <v>-0.0099795081967213</v>
       </c>
       <c r="L23">
-        <v>-0.0702403846153845</v>
+        <v>-0.06355095869439641</v>
       </c>
       <c r="M23">
-        <v>0.0243024180249213</v>
+        <v>0.0289882012224249</v>
       </c>
       <c r="N23">
-        <v>-0.959605911330048</v>
+        <v>-0.811342129814742</v>
       </c>
       <c r="O23" t="s">
         <v>40</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q23">
         <v>1838189</v>
@@ -2178,19 +2175,19 @@
         <v>5561608</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2207,40 +2204,40 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24">
-        <v>0.022894382975452</v>
+        <v>0.001402759140495</v>
       </c>
       <c r="G24">
-        <v>0.175438596491228</v>
+        <v>0.212765957446809</v>
       </c>
       <c r="H24">
-        <v>0.578947368421053</v>
+        <v>0.659574468085106</v>
       </c>
       <c r="I24">
         <v>3</v>
       </c>
       <c r="J24">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="K24">
-        <v>-0.11183024606972</v>
+        <v>-0.137761181575434</v>
       </c>
       <c r="L24">
-        <v>-0.165775978602676</v>
+        <v>-0.18603996991539</v>
       </c>
       <c r="M24">
-        <v>-0.0490074160465675</v>
+        <v>-0.068251376285921</v>
       </c>
       <c r="N24">
-        <v>-7.45534973798132</v>
+        <v>-11.0208945260347</v>
       </c>
       <c r="O24" t="s">
         <v>40</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q24">
         <v>1838189</v>
@@ -2249,19 +2246,19 @@
         <v>5561608</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2281,37 +2278,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.350807642569396</v>
+        <v>0.21308745690473</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.8465909090909089</v>
+        <v>0.8409090909090911</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.545</v>
+        <v>10.515</v>
       </c>
       <c r="K25">
-        <v>-0.0100022820629847</v>
+        <v>-0.0119492911668485</v>
       </c>
       <c r="L25">
         <v>-0.0334274488264</v>
       </c>
       <c r="M25">
-        <v>0.0216025932666059</v>
+        <v>0.0158680301153447</v>
       </c>
       <c r="N25">
-        <v>-0.09485331496429331</v>
+        <v>-0.113640429546824</v>
       </c>
       <c r="O25" t="s">
         <v>40</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Q25">
         <v>1838189</v>
@@ -2320,19 +2317,19 @@
         <v>5561608</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" t="s">
         <v>57</v>
-      </c>
-      <c r="W25" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2349,16 +2346,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F26">
-        <v>0.212996756232054</v>
+        <v>0.737441036251493</v>
       </c>
       <c r="G26">
-        <v>0.146067415730337</v>
+        <v>0.134831460674157</v>
       </c>
       <c r="H26">
-        <v>0.162921348314607</v>
+        <v>0.157303370786517</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2370,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-0.0001722220243933</v>
       </c>
       <c r="M26">
-        <v>0.0002220364741641</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2382,7 +2379,7 @@
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Q26">
         <v>1838189</v>
@@ -2391,19 +2388,19 @@
         <v>5561608</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2423,37 +2420,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.608618308739855</v>
+        <v>0.913752478699926</v>
       </c>
       <c r="G27">
         <v>0.0056179775280898</v>
       </c>
       <c r="H27">
-        <v>0.7752808988764049</v>
+        <v>0.797752808988764</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>422.5</v>
+        <v>409</v>
       </c>
       <c r="K27">
-        <v>-1.16064022261252</v>
+        <v>-7.2932955849191</v>
       </c>
       <c r="L27">
-        <v>-11.4019460060049</v>
+        <v>-18.840258039515</v>
       </c>
       <c r="M27">
-        <v>4.97904216848603</v>
+        <v>1.00507758165303</v>
       </c>
       <c r="N27">
-        <v>-0.274707744997047</v>
+        <v>-1.78320185450345</v>
       </c>
       <c r="O27" t="s">
         <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Q27">
         <v>1838189</v>
@@ -2462,19 +2459,19 @@
         <v>5561608</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2491,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28">
-        <v>0.99978158332196</v>
+        <v>0.99999833362432</v>
       </c>
       <c r="G28">
         <v>0.7692307692307691</v>
@@ -2524,7 +2521,7 @@
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q28">
         <v>1838189</v>
@@ -2533,19 +2530,19 @@
         <v>5561608</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2562,16 +2559,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F29">
-        <v>0.902112035428332</v>
+        <v>0.99446473050536</v>
       </c>
       <c r="G29">
-        <v>0.351190476190476</v>
+        <v>0.370786516853933</v>
       </c>
       <c r="H29">
-        <v>0.113095238095238</v>
+        <v>0.106741573033708</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2583,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>-0.0001027137232845</v>
+        <v>-0.000131764069264</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2595,7 +2592,7 @@
         <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Q29">
         <v>1838189</v>
@@ -2604,19 +2601,19 @@
         <v>5561608</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2636,37 +2633,37 @@
         <v>36</v>
       </c>
       <c r="F30">
-        <v>0.999999916411858</v>
+        <v>0.999999989822729</v>
       </c>
       <c r="G30">
-        <v>0.0892857142857143</v>
+        <v>0.0955056179775281</v>
       </c>
       <c r="H30">
-        <v>0.869047619047619</v>
+        <v>0.859550561797753</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.4085</v>
+        <v>0.397</v>
       </c>
       <c r="K30">
-        <v>-0.0231604885057471</v>
+        <v>-0.0211960999629936</v>
       </c>
       <c r="L30">
-        <v>-0.0293959529988536</v>
+        <v>-0.027142468449633</v>
       </c>
       <c r="M30">
-        <v>-0.0158159804613626</v>
+        <v>-0.0148675150432384</v>
       </c>
       <c r="N30">
-        <v>-5.66964222906906</v>
+        <v>-5.33906800075406</v>
       </c>
       <c r="O30" t="s">
         <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>1838189</v>
@@ -2675,19 +2672,19 @@
         <v>5561608</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2707,37 +2704,37 @@
         <v>36</v>
       </c>
       <c r="F31">
-        <v>0.736100753514205</v>
+        <v>0.297208610052084</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.522988505747126</v>
+        <v>0.505747126436782</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>7.51</v>
+        <v>7.53</v>
       </c>
       <c r="K31">
-        <v>0.0031244653550042</v>
+        <v>-0.0021516936671575</v>
       </c>
       <c r="L31">
-        <v>-0.0050337422288687</v>
+        <v>-0.0103893374531306</v>
       </c>
       <c r="M31">
-        <v>0.0124605543710021</v>
+        <v>0.0053390989389454</v>
       </c>
       <c r="N31">
-        <v>0.0416040659787511</v>
+        <v>-0.0285749490990377</v>
       </c>
       <c r="O31" t="s">
         <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q31">
         <v>1838189</v>
@@ -2746,16 +2743,16 @@
         <v>5561608</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2775,37 +2772,37 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.9999999983504</v>
+        <v>0.999999999047602</v>
       </c>
       <c r="G32">
         <v>0.0280898876404494</v>
       </c>
       <c r="H32">
-        <v>0.893258426966292</v>
+        <v>0.882022471910112</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>0.44855</v>
+        <v>0.424</v>
       </c>
       <c r="K32">
-        <v>-0.0261931443357598</v>
+        <v>-0.0244297499055438</v>
       </c>
       <c r="L32">
-        <v>-0.0325278111713313</v>
+        <v>-0.0299174308515415</v>
       </c>
       <c r="M32">
-        <v>-0.0185995386192755</v>
+        <v>-0.0167308866298803</v>
       </c>
       <c r="N32">
-        <v>-5.83951495613862</v>
+        <v>-5.76173346828864</v>
       </c>
       <c r="O32" t="s">
         <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q32">
         <v>1838189</v>
@@ -2814,19 +2811,19 @@
         <v>5561608</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
+        <v>56</v>
+      </c>
+      <c r="W32" t="s">
         <v>57</v>
-      </c>
-      <c r="W32" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2846,37 +2843,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.999999999965548</v>
+        <v>0.9999999999953501</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.685393258426966</v>
+        <v>0.668539325842697</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.77</v>
+        <v>0.715</v>
       </c>
       <c r="K33">
-        <v>-0.0359852216748768</v>
+        <v>-0.0340802532040689</v>
       </c>
       <c r="L33">
-        <v>-0.0410233364143006</v>
+        <v>-0.0401373626373626</v>
       </c>
       <c r="M33">
-        <v>-0.028394657051356</v>
+        <v>-0.0275468706643244</v>
       </c>
       <c r="N33">
-        <v>-4.67340541232167</v>
+        <v>-4.76646897959005</v>
       </c>
       <c r="O33" t="s">
         <v>40</v>
       </c>
       <c r="P33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q33">
         <v>1838189</v>
@@ -2885,19 +2882,19 @@
         <v>5561608</v>
       </c>
       <c r="S33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
+        <v>56</v>
+      </c>
+      <c r="W33" t="s">
         <v>57</v>
-      </c>
-      <c r="W33" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2914,34 +2911,34 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F34">
-        <v>0.50703032436152</v>
+        <v>0.764247975769365</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.331460674157303</v>
+        <v>0.325842696629214</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.023</v>
+        <v>0.0225</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>-0.0001521241149521</v>
       </c>
       <c r="L34">
-        <v>-0.0003707951239457</v>
+        <v>-0.0005247921168121</v>
       </c>
       <c r="M34">
-        <v>0.0003606476060033</v>
+        <v>0.0001876927029804</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>-0.676107177564904</v>
       </c>
       <c r="O34" t="s">
         <v>40</v>
@@ -2956,19 +2953,19 @@
         <v>5561608</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" t="s">
         <v>57</v>
-      </c>
-      <c r="W34" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2988,37 +2985,37 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.871137090769131</v>
+        <v>0.9640099723453091</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.859550561797753</v>
+        <v>0.837078651685393</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.375</v>
+        <v>1.335</v>
       </c>
       <c r="K35">
-        <v>-0.0225068583120062</v>
+        <v>-0.0393271237283715</v>
       </c>
       <c r="L35">
-        <v>-0.0534290691019797</v>
+        <v>-0.0616507800036725</v>
       </c>
       <c r="M35">
-        <v>0.0053955165404902</v>
+        <v>-0.005306326231852</v>
       </c>
       <c r="N35">
-        <v>-1.63686242269136</v>
+        <v>-2.94585196467202</v>
       </c>
       <c r="O35" t="s">
         <v>40</v>
       </c>
       <c r="P35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q35">
         <v>1838189</v>
@@ -3027,19 +3024,19 @@
         <v>5561608</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
